--- a/Code/Results/Cases/Case_3_141/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_141/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.3544868408558</v>
+        <v>10.2010195329214</v>
       </c>
       <c r="C2">
-        <v>8.760442471924158</v>
+        <v>6.348597204040211</v>
       </c>
       <c r="D2">
-        <v>4.458821994258232</v>
+        <v>6.166271433259684</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>27.91217399060141</v>
+        <v>32.11997103907203</v>
       </c>
       <c r="G2">
-        <v>2.095568412729283</v>
+        <v>3.67069451656726</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>19.23828291567003</v>
+        <v>25.43644112348629</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.58703559507058</v>
+        <v>10.8551038974116</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>29.78145709366581</v>
+        <v>19.97926429944394</v>
       </c>
       <c r="N2">
-        <v>13.94001734749491</v>
+        <v>20.63038108250789</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.5051640523964</v>
+        <v>9.993223557450916</v>
       </c>
       <c r="C3">
-        <v>8.137983606236006</v>
+        <v>6.161188816825276</v>
       </c>
       <c r="D3">
-        <v>4.499617416965009</v>
+        <v>6.166756878286209</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>27.00606816702663</v>
+        <v>31.99526619901115</v>
       </c>
       <c r="G3">
-        <v>2.103220071694507</v>
+        <v>3.673347356561079</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>18.97247066128111</v>
+        <v>25.43717054731999</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.81665202579446</v>
+        <v>10.7191196820789</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>27.48369473357715</v>
+        <v>19.39140724492064</v>
       </c>
       <c r="N3">
-        <v>14.10276588129727</v>
+        <v>20.6781232241942</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.95449868478824</v>
+        <v>9.866404362153347</v>
       </c>
       <c r="C4">
-        <v>7.735771129311125</v>
+        <v>6.04521137976755</v>
       </c>
       <c r="D4">
-        <v>4.523944751591138</v>
+        <v>6.166941496036576</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>26.45992474213839</v>
+        <v>31.92621034295823</v>
       </c>
       <c r="G4">
-        <v>2.108024240769743</v>
+        <v>3.67506028193894</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>18.82262700084449</v>
+        <v>25.442385677547</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.31809188463597</v>
+        <v>10.6377101444263</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>26.02396260776235</v>
+        <v>19.02955670327156</v>
       </c>
       <c r="N4">
-        <v>14.20708575401566</v>
+        <v>20.70932067105695</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.72269596831566</v>
+        <v>9.814999142454043</v>
       </c>
       <c r="C5">
-        <v>7.566769860891033</v>
+        <v>5.997804687530105</v>
       </c>
       <c r="D5">
-        <v>4.533708988154748</v>
+        <v>6.166988485123845</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>26.24008418701728</v>
+        <v>31.89997529364077</v>
       </c>
       <c r="G5">
-        <v>2.110010571164066</v>
+        <v>3.675779531503692</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>18.76481855313969</v>
+        <v>25.4457082773189</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.10845531120688</v>
+        <v>10.6051006883781</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>25.41594287162096</v>
+        <v>18.88211829205501</v>
       </c>
       <c r="N5">
-        <v>14.25068289188813</v>
+        <v>20.72250760243267</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.68375636892417</v>
+        <v>9.806482332217591</v>
       </c>
       <c r="C6">
-        <v>7.538397778188408</v>
+        <v>5.98992661230943</v>
       </c>
       <c r="D6">
-        <v>4.535322170893648</v>
+        <v>6.166994589996095</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>26.20374866711607</v>
+        <v>31.89573451996176</v>
       </c>
       <c r="G6">
-        <v>2.110342179631881</v>
+        <v>3.675900246191846</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>18.75541290492908</v>
+        <v>25.44633226154515</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.07325334828424</v>
+        <v>10.5997212558923</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>25.31416307155894</v>
+        <v>18.85764478051637</v>
       </c>
       <c r="N6">
-        <v>14.25798725271257</v>
+        <v>20.72472589632973</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.95140256803242</v>
+        <v>9.865709873006564</v>
       </c>
       <c r="C7">
-        <v>7.733512633696653</v>
+        <v>6.0445725099235</v>
       </c>
       <c r="D7">
-        <v>4.524077000872634</v>
+        <v>6.166942243734405</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>26.45694868183138</v>
+        <v>31.92584879154419</v>
       </c>
       <c r="G7">
-        <v>2.108050910929351</v>
+        <v>3.675069895971947</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>18.82183434186854</v>
+        <v>25.44242564126</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.31529090363115</v>
+        <v>10.63726801818557</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>26.0158170230935</v>
+        <v>19.02756788882086</v>
       </c>
       <c r="N7">
-        <v>14.20766934610765</v>
+        <v>20.70949659642248</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.06765627021854</v>
+        <v>10.12926045935751</v>
       </c>
       <c r="C8">
-        <v>8.549935068086109</v>
+        <v>6.284215801857049</v>
       </c>
       <c r="D8">
-        <v>4.473058587097007</v>
+        <v>6.166462531713703</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>27.59771327946548</v>
+        <v>32.07542401225545</v>
       </c>
       <c r="G8">
-        <v>2.098185928657824</v>
+        <v>3.671591814113186</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>19.14379215166279</v>
+        <v>25.43570250263079</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.32667843331705</v>
+        <v>10.80780878288352</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>28.99877364683403</v>
+        <v>19.77690275452946</v>
       </c>
       <c r="N8">
-        <v>13.99520991572804</v>
+        <v>20.64645168098699</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.02817050876168</v>
+        <v>10.64867931171664</v>
       </c>
       <c r="C9">
-        <v>9.995130431389802</v>
+        <v>6.743535970582528</v>
       </c>
       <c r="D9">
-        <v>4.365574215434092</v>
+        <v>6.164608701653846</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>29.91060193470629</v>
+        <v>32.4275230295202</v>
       </c>
       <c r="G9">
-        <v>2.079582241331949</v>
+        <v>3.66543479417148</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>19.88613513783525</v>
+        <v>25.46038765782751</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>13.10977647781423</v>
+        <v>11.15692790845445</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>34.50741474925999</v>
+        <v>21.22900276320528</v>
       </c>
       <c r="N9">
-        <v>13.61434150298883</v>
+        <v>20.53776248996507</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.33372118350078</v>
+        <v>11.02735497457906</v>
       </c>
       <c r="C10">
-        <v>10.96657734539744</v>
+        <v>7.070328222081887</v>
       </c>
       <c r="D10">
-        <v>4.279112990459848</v>
+        <v>6.16267179046686</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>31.65232265709862</v>
+        <v>32.72077637995417</v>
       </c>
       <c r="G10">
-        <v>2.066202285282041</v>
+        <v>3.661310695073342</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>20.50654478192712</v>
+        <v>25.50164213003028</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.30156900368051</v>
+        <v>11.41985545504393</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>38.42895047459166</v>
+        <v>22.27269591385013</v>
       </c>
       <c r="N10">
-        <v>13.3577019325078</v>
+        <v>20.46701215344883</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.8993964167429</v>
+        <v>11.19808885430325</v>
       </c>
       <c r="C11">
-        <v>11.39006029599472</v>
+        <v>7.21590315108722</v>
       </c>
       <c r="D11">
-        <v>4.237261823950873</v>
+        <v>6.161661825856123</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>32.45425327710239</v>
+        <v>32.86137361679501</v>
       </c>
       <c r="G11">
-        <v>2.060131866568883</v>
+        <v>3.659520201811643</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>20.8069541706094</v>
+        <v>25.52542545473425</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.81902289841718</v>
+        <v>11.54032632733863</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>40.21089902235642</v>
+        <v>22.74012503800054</v>
       </c>
       <c r="N11">
-        <v>13.24630211601489</v>
+        <v>20.43680206305341</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.10963271392925</v>
+        <v>11.26245202444076</v>
       </c>
       <c r="C12">
-        <v>11.5478812972989</v>
+        <v>7.270528273706985</v>
       </c>
       <c r="D12">
-        <v>4.220951158454234</v>
+        <v>6.161260527194526</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>32.75943882233111</v>
+        <v>32.9156187062561</v>
       </c>
       <c r="G12">
-        <v>2.057830589369692</v>
+        <v>3.658854412477075</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>20.92351572030136</v>
+        <v>25.53515146059778</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>15.01150437939084</v>
+        <v>11.58602534284838</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>40.88828696672714</v>
+        <v>22.91589829343211</v>
       </c>
       <c r="N12">
-        <v>13.20491145293075</v>
+        <v>20.42564628467274</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.06452982596136</v>
+        <v>11.24860424031009</v>
       </c>
       <c r="C13">
-        <v>11.51400293882387</v>
+        <v>7.258786910389146</v>
       </c>
       <c r="D13">
-        <v>4.224486435099689</v>
+        <v>6.161347797354096</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>32.69364123689943</v>
+        <v>32.9038919116652</v>
       </c>
       <c r="G13">
-        <v>2.058326413812606</v>
+        <v>3.658997259306576</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>20.89828399760859</v>
+        <v>25.53302481037755</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.97020281700637</v>
+        <v>11.57618042071138</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>40.74222797626629</v>
+        <v>22.87809977694812</v>
       </c>
       <c r="N13">
-        <v>13.21379001751398</v>
+        <v>20.42803624132246</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.91677179018224</v>
+        <v>11.20339025232504</v>
       </c>
       <c r="C14">
-        <v>11.40309461692646</v>
+        <v>7.220407541368791</v>
       </c>
       <c r="D14">
-        <v>4.235929883247969</v>
+        <v>6.161629190331059</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>32.47932966617623</v>
+        <v>32.86581645412421</v>
       </c>
       <c r="G14">
-        <v>2.059942622090808</v>
+        <v>3.659465182210307</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>20.81648635830114</v>
+        <v>25.52621120485536</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.83492743879745</v>
+        <v>11.54408467753671</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>40.26655627344672</v>
+        <v>22.75461164242799</v>
       </c>
       <c r="N14">
-        <v>13.2428808426697</v>
+        <v>20.43587857499422</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.82575101253601</v>
+        <v>11.17565558880799</v>
       </c>
       <c r="C15">
-        <v>11.33483236500728</v>
+        <v>7.196832224012518</v>
       </c>
       <c r="D15">
-        <v>4.242875627069702</v>
+        <v>6.161799087721491</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>32.34826011448595</v>
+        <v>32.842623941658</v>
       </c>
       <c r="G15">
-        <v>2.060932101228556</v>
+        <v>3.659753389201812</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>20.766754255445</v>
+        <v>25.52213135388769</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.75161849087451</v>
+        <v>11.52443411826782</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>39.97563315713053</v>
+        <v>22.67880624908973</v>
       </c>
       <c r="N15">
-        <v>13.26080387888551</v>
+        <v>20.44071923837658</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.29619225995441</v>
+        <v>11.01616026480084</v>
       </c>
       <c r="C16">
-        <v>10.93853972247221</v>
+        <v>7.060747455504951</v>
       </c>
       <c r="D16">
-        <v>4.281789413560795</v>
+        <v>6.162735174052234</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>31.60011686375964</v>
+        <v>32.71173022246338</v>
       </c>
       <c r="G16">
-        <v>2.066598935905583</v>
+        <v>3.661429423717865</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>20.48729343966925</v>
+        <v>25.50018865584435</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.26726222705983</v>
+        <v>11.41199592553872</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>38.3126840876558</v>
+        <v>22.24198505363025</v>
       </c>
       <c r="N16">
-        <v>13.3650920155724</v>
+        <v>20.46902620287952</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.96415560565699</v>
+        <v>10.91787242428995</v>
       </c>
       <c r="C17">
-        <v>10.69077836135183</v>
+        <v>6.976431217457225</v>
       </c>
       <c r="D17">
-        <v>4.304953354341809</v>
+        <v>6.163276204886613</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>31.14367918826456</v>
+        <v>32.63325274295693</v>
       </c>
       <c r="G17">
-        <v>2.070076370159064</v>
+        <v>3.662479482493942</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>20.32063278277329</v>
+        <v>25.48801141650016</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.96385718792494</v>
+        <v>11.34320778619802</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>37.29381599990926</v>
+        <v>21.97199665033941</v>
       </c>
       <c r="N17">
-        <v>13.43045798381399</v>
+        <v>20.4868974721746</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.77051467015264</v>
+        <v>10.86120003117412</v>
       </c>
       <c r="C18">
-        <v>10.54653038228322</v>
+        <v>6.927647488186114</v>
       </c>
       <c r="D18">
-        <v>4.318046818543869</v>
+        <v>6.163575282368998</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>30.88204015353653</v>
+        <v>32.58879374316547</v>
       </c>
       <c r="G18">
-        <v>2.072078368283662</v>
+        <v>3.663091508187757</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>20.22647224452092</v>
+        <v>25.48147969561</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.78701637956963</v>
+        <v>11.30372661958873</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>36.70739088935712</v>
+        <v>21.81602382265397</v>
       </c>
       <c r="N18">
-        <v>13.4685566282419</v>
+        <v>20.497362399266</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.70449138252499</v>
+        <v>10.84198992902571</v>
       </c>
       <c r="C19">
-        <v>10.49738820536223</v>
+        <v>6.911082659595989</v>
       </c>
       <c r="D19">
-        <v>4.322443193689009</v>
+        <v>6.163674474729327</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>30.79360447900195</v>
+        <v>32.57385823998842</v>
       </c>
       <c r="G19">
-        <v>2.072756662634613</v>
+        <v>3.66330011610463</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>20.19487763716491</v>
+        <v>25.47934932453743</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.72673844713447</v>
+        <v>11.29037477478204</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>36.50869396572508</v>
+        <v>21.76310246015861</v>
       </c>
       <c r="N19">
-        <v>13.48154153957214</v>
+        <v>20.50093755767959</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.99977639525819</v>
+        <v>10.92835032720554</v>
       </c>
       <c r="C20">
-        <v>10.71733255466236</v>
+        <v>6.985436988740969</v>
       </c>
       <c r="D20">
-        <v>4.30251193856908</v>
+        <v>6.163219866775198</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>31.19217483230799</v>
+        <v>32.64153672894587</v>
       </c>
       <c r="G20">
-        <v>2.069706029600404</v>
+        <v>3.66236686834285</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>20.33819708586108</v>
+        <v>25.48925883225105</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.99639575708033</v>
+        <v>11.35052204023262</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>37.40229928016353</v>
+        <v>22.00080934671277</v>
       </c>
       <c r="N20">
-        <v>13.42344752717278</v>
+        <v>20.48497580948417</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.96027901240664</v>
+        <v>11.21667910861158</v>
       </c>
       <c r="C21">
-        <v>11.43573915892748</v>
+        <v>7.231694517584033</v>
       </c>
       <c r="D21">
-        <v>4.232582161417361</v>
+        <v>6.161547052442614</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>32.54223559319111</v>
+        <v>32.87697314505274</v>
       </c>
       <c r="G21">
-        <v>2.059468016119288</v>
+        <v>3.659327410542731</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>20.8404345305604</v>
+        <v>25.5281930069499</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.87475447908016</v>
+        <v>11.5535101765119</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>40.40617452544519</v>
+        <v>22.79091784724586</v>
       </c>
       <c r="N21">
-        <v>13.23431443853183</v>
+        <v>20.43356737878185</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.56491081988203</v>
+        <v>11.40339835714889</v>
       </c>
       <c r="C22">
-        <v>11.89049928091713</v>
+        <v>7.389695436946169</v>
       </c>
       <c r="D22">
-        <v>4.184113086215861</v>
+        <v>6.160343766864613</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>33.43353080363094</v>
+        <v>33.03668084211792</v>
       </c>
       <c r="G22">
-        <v>2.052758878129225</v>
+        <v>3.657412209798853</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>21.18513406374533</v>
+        <v>25.55783300246938</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>15.42864891033794</v>
+        <v>11.6866167645395</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>42.38660853982118</v>
+        <v>23.30004899991037</v>
       </c>
       <c r="N22">
-        <v>13.11533970819949</v>
+        <v>20.40162520971371</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.24429248673199</v>
+        <v>11.30392235475146</v>
       </c>
       <c r="C23">
-        <v>11.64909618444709</v>
+        <v>7.305654150968609</v>
       </c>
       <c r="D23">
-        <v>4.210276337718755</v>
+        <v>6.160996154396611</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>32.95693938702667</v>
+        <v>32.95091840697299</v>
       </c>
       <c r="G23">
-        <v>2.056343254834275</v>
+        <v>3.658427892755105</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>20.99958179380502</v>
+        <v>25.54163047869395</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>15.13483999279508</v>
+        <v>11.61554942460762</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>41.32683226543203</v>
+        <v>23.02903296988406</v>
       </c>
       <c r="N23">
-        <v>13.17840810478724</v>
+        <v>20.41852173634192</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.98368080415143</v>
+        <v>10.92361377710992</v>
       </c>
       <c r="C24">
-        <v>10.70533303920725</v>
+        <v>6.981366438220062</v>
       </c>
       <c r="D24">
-        <v>4.303616392555186</v>
+        <v>6.163245374490129</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>31.17024755202115</v>
+        <v>32.6377894847252</v>
       </c>
       <c r="G24">
-        <v>2.069873451572694</v>
+        <v>3.662417755239828</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>20.33025112346522</v>
+        <v>25.48869341422241</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.98169258041297</v>
+        <v>11.34721505683448</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>37.35325626341895</v>
+        <v>21.98778545834662</v>
       </c>
       <c r="N24">
-        <v>13.42661534043634</v>
+        <v>20.48584399984671</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.52181174146709</v>
+        <v>10.50836305936062</v>
       </c>
       <c r="C25">
-        <v>9.620393059655527</v>
+        <v>6.620869591847392</v>
       </c>
       <c r="D25">
-        <v>4.395716856381638</v>
+        <v>6.165209844591697</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>29.27735106339647</v>
+        <v>32.32609972543894</v>
       </c>
       <c r="G25">
-        <v>2.084550978743457</v>
+        <v>3.667029919754631</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>19.67270836274287</v>
+        <v>25.44964995341176</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.6484666590352</v>
+        <v>11.06116926246162</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>33.04626392510706</v>
+        <v>20.83938834315423</v>
       </c>
       <c r="N25">
-        <v>13.7134117143393</v>
+        <v>20.56556681083418</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_141/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_141/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.2010195329214</v>
+        <v>12.35448684085582</v>
       </c>
       <c r="C2">
-        <v>6.348597204040211</v>
+        <v>8.760442471924176</v>
       </c>
       <c r="D2">
-        <v>6.166271433259684</v>
+        <v>4.458821994258293</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>32.11997103907203</v>
+        <v>27.9121739906015</v>
       </c>
       <c r="G2">
-        <v>3.67069451656726</v>
+        <v>2.095568412729282</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>25.43644112348629</v>
+        <v>19.23828291567007</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.8551038974116</v>
+        <v>11.58703559507058</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19.97926429944394</v>
+        <v>29.78145709366589</v>
       </c>
       <c r="N2">
-        <v>20.63038108250789</v>
+        <v>13.94001734749482</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.993223557450916</v>
+        <v>11.50516405239646</v>
       </c>
       <c r="C3">
-        <v>6.161188816825276</v>
+        <v>8.137983606235972</v>
       </c>
       <c r="D3">
-        <v>6.166756878286209</v>
+        <v>4.499617416965008</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>31.99526619901115</v>
+        <v>27.0060681670265</v>
       </c>
       <c r="G3">
-        <v>3.673347356561079</v>
+        <v>2.103220071694373</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>25.43717054731999</v>
+        <v>18.97247066128101</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.7191196820789</v>
+        <v>10.81665202579446</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>19.39140724492064</v>
+        <v>27.48369473357722</v>
       </c>
       <c r="N3">
-        <v>20.6781232241942</v>
+        <v>14.10276588129716</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.866404362153347</v>
+        <v>10.95449868478822</v>
       </c>
       <c r="C4">
-        <v>6.04521137976755</v>
+        <v>7.735771129311124</v>
       </c>
       <c r="D4">
-        <v>6.166941496036576</v>
+        <v>4.52394475159107</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>31.92621034295823</v>
+        <v>26.45992474213841</v>
       </c>
       <c r="G4">
-        <v>3.67506028193894</v>
+        <v>2.10802424077001</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>25.442385677547</v>
+        <v>18.82262700084451</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.6377101444263</v>
+        <v>10.31809188463596</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>19.02955670327156</v>
+        <v>26.02396260776228</v>
       </c>
       <c r="N4">
-        <v>20.70932067105695</v>
+        <v>14.20708575401565</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.814999142454043</v>
+        <v>10.7226959683157</v>
       </c>
       <c r="C5">
-        <v>5.997804687530105</v>
+        <v>7.566769860891047</v>
       </c>
       <c r="D5">
-        <v>6.166988485123845</v>
+        <v>4.533708988154815</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>31.89997529364077</v>
+        <v>26.24008418701721</v>
       </c>
       <c r="G5">
-        <v>3.675779531503692</v>
+        <v>2.110010571163935</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>25.4457082773189</v>
+        <v>18.7648185531396</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.6051006883781</v>
+        <v>10.10845531120691</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>18.88211829205501</v>
+        <v>25.415942871621</v>
       </c>
       <c r="N5">
-        <v>20.72250760243267</v>
+        <v>14.25068289188805</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.806482332217591</v>
+        <v>10.68375636892424</v>
       </c>
       <c r="C6">
-        <v>5.98992661230943</v>
+        <v>7.538397778188399</v>
       </c>
       <c r="D6">
-        <v>6.166994589996095</v>
+        <v>4.535322170893514</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>31.89573451996176</v>
+        <v>26.20374866711601</v>
       </c>
       <c r="G6">
-        <v>3.675900246191846</v>
+        <v>2.110342179631747</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>25.44633226154515</v>
+        <v>18.75541290492897</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.5997212558923</v>
+        <v>10.07325334828429</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>18.85764478051637</v>
+        <v>25.31416307155888</v>
       </c>
       <c r="N6">
-        <v>20.72472589632973</v>
+        <v>14.25798725271257</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.865709873006564</v>
+        <v>10.95140256803248</v>
       </c>
       <c r="C7">
-        <v>6.0445725099235</v>
+        <v>7.733512633696724</v>
       </c>
       <c r="D7">
-        <v>6.166942243734405</v>
+        <v>4.524077000872763</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>31.92584879154419</v>
+        <v>26.45694868183128</v>
       </c>
       <c r="G7">
-        <v>3.675069895971947</v>
+        <v>2.108050910929218</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>25.44242564126</v>
+        <v>18.82183434186852</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.63726801818557</v>
+        <v>10.31529090363123</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>19.02756788882086</v>
+        <v>26.01581702309348</v>
       </c>
       <c r="N7">
-        <v>20.70949659642248</v>
+        <v>14.20766934610767</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.12926045935751</v>
+        <v>12.0676562702185</v>
       </c>
       <c r="C8">
-        <v>6.284215801857049</v>
+        <v>8.549935068085997</v>
       </c>
       <c r="D8">
-        <v>6.166462531713703</v>
+        <v>4.47305858709694</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>32.07542401225545</v>
+        <v>27.59771327946561</v>
       </c>
       <c r="G8">
-        <v>3.671591814113186</v>
+        <v>2.098185928657821</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>25.43570250263079</v>
+        <v>19.14379215166289</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.80780878288352</v>
+        <v>11.32667843331697</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>19.77690275452946</v>
+        <v>28.99877364683402</v>
       </c>
       <c r="N8">
-        <v>20.64645168098699</v>
+        <v>13.99520991572807</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.64867931171664</v>
+        <v>14.02817050876171</v>
       </c>
       <c r="C9">
-        <v>6.743535970582528</v>
+        <v>9.995130431389935</v>
       </c>
       <c r="D9">
-        <v>6.164608701653846</v>
+        <v>4.365574215433891</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>32.4275230295202</v>
+        <v>29.91060193470626</v>
       </c>
       <c r="G9">
-        <v>3.66543479417148</v>
+        <v>2.079582241332086</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>25.46038765782751</v>
+        <v>19.88613513783523</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.15692790845445</v>
+        <v>13.10977647781431</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.22900276320528</v>
+        <v>34.50741474926009</v>
       </c>
       <c r="N9">
-        <v>20.53776248996507</v>
+        <v>13.61434150298876</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.02735497457906</v>
+        <v>15.33372118350075</v>
       </c>
       <c r="C10">
-        <v>7.070328222081887</v>
+        <v>10.96657734539765</v>
       </c>
       <c r="D10">
-        <v>6.16267179046686</v>
+        <v>4.279112990459846</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>32.72077637995417</v>
+        <v>31.65232265709858</v>
       </c>
       <c r="G10">
-        <v>3.661310695073342</v>
+        <v>2.06620228528244</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>25.50164213003028</v>
+        <v>20.50654478192712</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11.41985545504393</v>
+        <v>14.30156900368057</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.27269591385013</v>
+        <v>38.42895047459163</v>
       </c>
       <c r="N10">
-        <v>20.46701215344883</v>
+        <v>13.35770193250774</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.19808885430325</v>
+        <v>15.89939641674281</v>
       </c>
       <c r="C11">
-        <v>7.21590315108722</v>
+        <v>11.39006029599469</v>
       </c>
       <c r="D11">
-        <v>6.161661825856123</v>
+        <v>4.237261823951001</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>32.86137361679501</v>
+        <v>32.45425327710244</v>
       </c>
       <c r="G11">
-        <v>3.659520201811643</v>
+        <v>2.060131866568883</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>25.52542545473425</v>
+        <v>20.8069541706095</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>11.54032632733863</v>
+        <v>14.81902289841712</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>22.74012503800054</v>
+        <v>40.21089902235646</v>
       </c>
       <c r="N11">
-        <v>20.43680206305341</v>
+        <v>13.24630211601492</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.26245202444076</v>
+        <v>16.10963271392928</v>
       </c>
       <c r="C12">
-        <v>7.270528273706985</v>
+        <v>11.54788129729895</v>
       </c>
       <c r="D12">
-        <v>6.161260527194526</v>
+        <v>4.220951158454431</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>32.9156187062561</v>
+        <v>32.75943882233111</v>
       </c>
       <c r="G12">
-        <v>3.658854412477075</v>
+        <v>2.05783058936956</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>25.53515146059778</v>
+        <v>20.92351572030131</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.58602534284838</v>
+        <v>15.01150437939092</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>22.91589829343211</v>
+        <v>40.88828696672711</v>
       </c>
       <c r="N12">
-        <v>20.42564628467274</v>
+        <v>13.20491145293062</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.24860424031009</v>
+        <v>16.06452982596134</v>
       </c>
       <c r="C13">
-        <v>7.258786910389146</v>
+        <v>11.51400293882388</v>
       </c>
       <c r="D13">
-        <v>6.161347797354096</v>
+        <v>4.224486435099619</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>32.9038919116652</v>
+        <v>32.69364123689947</v>
       </c>
       <c r="G13">
-        <v>3.658997259306576</v>
+        <v>2.058326413812738</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>25.53302481037755</v>
+        <v>20.89828399760867</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.57618042071138</v>
+        <v>14.97020281700637</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>22.87809977694812</v>
+        <v>40.74222797626607</v>
       </c>
       <c r="N13">
-        <v>20.42803624132246</v>
+        <v>13.2137900175141</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.20339025232504</v>
+        <v>15.91677179018244</v>
       </c>
       <c r="C14">
-        <v>7.220407541368791</v>
+        <v>11.40309461692646</v>
       </c>
       <c r="D14">
-        <v>6.161629190331059</v>
+        <v>4.235929883247904</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>32.86581645412421</v>
+        <v>32.47932966617624</v>
       </c>
       <c r="G14">
-        <v>3.659465182210307</v>
+        <v>2.059942622090675</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>25.52621120485536</v>
+        <v>20.81648635830106</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>11.54408467753671</v>
+        <v>14.83492743879754</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>22.75461164242799</v>
+        <v>40.26655627344678</v>
       </c>
       <c r="N14">
-        <v>20.43587857499422</v>
+        <v>13.24288084266959</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.17565558880799</v>
+        <v>15.82575101253602</v>
       </c>
       <c r="C15">
-        <v>7.196832224012518</v>
+        <v>11.33483236500739</v>
       </c>
       <c r="D15">
-        <v>6.161799087721491</v>
+        <v>4.242875627069703</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>32.842623941658</v>
+        <v>32.34826011448591</v>
       </c>
       <c r="G15">
-        <v>3.659753389201812</v>
+        <v>2.060932101228553</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>25.52213135388769</v>
+        <v>20.76675425544497</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>11.52443411826782</v>
+        <v>14.75161849087454</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>22.67880624908973</v>
+        <v>39.97563315713066</v>
       </c>
       <c r="N15">
-        <v>20.44071923837658</v>
+        <v>13.26080387888543</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.01616026480084</v>
+        <v>15.29619225995439</v>
       </c>
       <c r="C16">
-        <v>7.060747455504951</v>
+        <v>10.93853972247222</v>
       </c>
       <c r="D16">
-        <v>6.162735174052234</v>
+        <v>4.281789413560993</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>32.71173022246338</v>
+        <v>31.60011686375961</v>
       </c>
       <c r="G16">
-        <v>3.661429423717865</v>
+        <v>2.066598935905581</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>25.50018865584435</v>
+        <v>20.48729343966929</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.41199592553872</v>
+        <v>14.26726222705979</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22.24198505363025</v>
+        <v>38.31268408765565</v>
       </c>
       <c r="N16">
-        <v>20.46902620287952</v>
+        <v>13.36509201557242</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.91787242428995</v>
+        <v>14.96415560565695</v>
       </c>
       <c r="C17">
-        <v>6.976431217457225</v>
+        <v>10.69077836135182</v>
       </c>
       <c r="D17">
-        <v>6.163276204886613</v>
+        <v>4.304953354342007</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>32.63325274295693</v>
+        <v>31.14367918826469</v>
       </c>
       <c r="G17">
-        <v>3.662479482493942</v>
+        <v>2.070076370158797</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>25.48801141650016</v>
+        <v>20.32063278277348</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.34320778619802</v>
+        <v>13.9638571879249</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>21.97199665033941</v>
+        <v>37.29381599990915</v>
       </c>
       <c r="N17">
-        <v>20.4868974721746</v>
+        <v>13.43045798381419</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.86120003117412</v>
+        <v>14.77051467015272</v>
       </c>
       <c r="C18">
-        <v>6.927647488186114</v>
+        <v>10.54653038228315</v>
       </c>
       <c r="D18">
-        <v>6.163575282368998</v>
+        <v>4.318046818543936</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>32.58879374316547</v>
+        <v>30.88204015353644</v>
       </c>
       <c r="G18">
-        <v>3.663091508187757</v>
+        <v>2.072078368283528</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>25.48147969561</v>
+        <v>20.22647224452084</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.30372661958873</v>
+        <v>13.78701637956969</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.81602382265397</v>
+        <v>36.70739088935709</v>
       </c>
       <c r="N18">
-        <v>20.497362399266</v>
+        <v>13.46855662824184</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.84198992902571</v>
+        <v>14.70449138252504</v>
       </c>
       <c r="C19">
-        <v>6.911082659595989</v>
+        <v>10.49738820536217</v>
       </c>
       <c r="D19">
-        <v>6.163674474729327</v>
+        <v>4.322443193688941</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>32.57385823998842</v>
+        <v>30.79360447900193</v>
       </c>
       <c r="G19">
-        <v>3.66330011610463</v>
+        <v>2.072756662634478</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>25.47934932453743</v>
+        <v>20.19487763716482</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.29037477478204</v>
+        <v>13.72673844713446</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.76310246015861</v>
+        <v>36.50869396572494</v>
       </c>
       <c r="N19">
-        <v>20.50093755767959</v>
+        <v>13.48154153957209</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.92835032720554</v>
+        <v>14.99977639525822</v>
       </c>
       <c r="C20">
-        <v>6.985436988740969</v>
+        <v>10.71733255466234</v>
       </c>
       <c r="D20">
-        <v>6.163219866775198</v>
+        <v>4.302511938569012</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>32.64153672894587</v>
+        <v>31.19217483230798</v>
       </c>
       <c r="G20">
-        <v>3.66236686834285</v>
+        <v>2.069706029600673</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>25.48925883225105</v>
+        <v>20.33819708586105</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.35052204023262</v>
+        <v>13.99639575708036</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>22.00080934671277</v>
+        <v>37.40229928016342</v>
       </c>
       <c r="N20">
-        <v>20.48497580948417</v>
+        <v>13.42344752717275</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.21667910861158</v>
+        <v>15.96027901240658</v>
       </c>
       <c r="C21">
-        <v>7.231694517584033</v>
+        <v>11.43573915892743</v>
       </c>
       <c r="D21">
-        <v>6.161547052442614</v>
+        <v>4.232582161417621</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>32.87697314505274</v>
+        <v>32.54223559319117</v>
       </c>
       <c r="G21">
-        <v>3.659327410542731</v>
+        <v>2.059468016119288</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>25.5281930069499</v>
+        <v>20.84043453056047</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>11.5535101765119</v>
+        <v>14.87475447908013</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>22.79091784724586</v>
+        <v>40.40617452544534</v>
       </c>
       <c r="N21">
-        <v>20.43356737878185</v>
+        <v>13.23431443853188</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.40339835714889</v>
+        <v>16.56491081988207</v>
       </c>
       <c r="C22">
-        <v>7.389695436946169</v>
+        <v>11.89049928091716</v>
       </c>
       <c r="D22">
-        <v>6.160343766864613</v>
+        <v>4.184113086215792</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>33.03668084211792</v>
+        <v>33.433530803631</v>
       </c>
       <c r="G22">
-        <v>3.657412209798853</v>
+        <v>2.052758878129092</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>25.55783300246938</v>
+        <v>21.18513406374539</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>11.6866167645395</v>
+        <v>15.42864891033798</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>23.30004899991037</v>
+        <v>42.38660853982095</v>
       </c>
       <c r="N22">
-        <v>20.40162520971371</v>
+        <v>13.11533970819962</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.30392235475146</v>
+        <v>16.24429248673194</v>
       </c>
       <c r="C23">
-        <v>7.305654150968609</v>
+        <v>11.64909618444707</v>
       </c>
       <c r="D23">
-        <v>6.160996154396611</v>
+        <v>4.21027633771869</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>32.95091840697299</v>
+        <v>32.95693938702672</v>
       </c>
       <c r="G23">
-        <v>3.658427892755105</v>
+        <v>2.056343254834409</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>25.54163047869395</v>
+        <v>20.99958179380508</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>11.61554942460762</v>
+        <v>15.13483999279505</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>23.02903296988406</v>
+        <v>41.32683226543192</v>
       </c>
       <c r="N23">
-        <v>20.41852173634192</v>
+        <v>13.17840810478729</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.92361377710992</v>
+        <v>14.98368080415136</v>
       </c>
       <c r="C24">
-        <v>6.981366438220062</v>
+        <v>10.70533303920725</v>
       </c>
       <c r="D24">
-        <v>6.163245374490129</v>
+        <v>4.303616392555323</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>32.6377894847252</v>
+        <v>31.17024755202113</v>
       </c>
       <c r="G24">
-        <v>3.662417755239828</v>
+        <v>2.069873451572696</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>25.48869341422241</v>
+        <v>20.33025112346521</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.34721505683448</v>
+        <v>13.98169258041296</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>21.98778545834662</v>
+        <v>37.35325626341889</v>
       </c>
       <c r="N24">
-        <v>20.48584399984671</v>
+        <v>13.42661534043631</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.50836305936062</v>
+        <v>13.52181174146704</v>
       </c>
       <c r="C25">
-        <v>6.620869591847392</v>
+        <v>9.620393059655544</v>
       </c>
       <c r="D25">
-        <v>6.165209844591697</v>
+        <v>4.395716856381767</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>32.32609972543894</v>
+        <v>29.27735106339672</v>
       </c>
       <c r="G25">
-        <v>3.667029919754631</v>
+        <v>2.084550978743592</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>25.44964995341176</v>
+        <v>19.67270836274317</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.06116926246162</v>
+        <v>12.64846665903518</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.83938834315423</v>
+        <v>33.04626392510698</v>
       </c>
       <c r="N25">
-        <v>20.56556681083418</v>
+        <v>13.71341171433954</v>
       </c>
       <c r="O25">
         <v>0</v>
